--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.168573141098022</v>
+        <v>2.520905160903931</v>
       </c>
       <c r="C2">
-        <v>0.7808794124058706</v>
+        <v>0.7816007632008675</v>
       </c>
       <c r="D2">
-        <v>1.925850582122803</v>
+        <v>1.445225715637207</v>
       </c>
       <c r="E2">
-        <v>0.2714891169178946</v>
+        <v>0.9911781861521042</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.429179620742798</v>
+        <v>7.744060468673706</v>
       </c>
       <c r="C3">
-        <v>0.6554790036907353</v>
+        <v>1.447375207324618</v>
       </c>
       <c r="D3">
-        <v>1.362271165847778</v>
+        <v>2.135297060012817</v>
       </c>
       <c r="E3">
-        <v>0.6527381698792089</v>
+        <v>0.5623774161249065</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.26504197120667</v>
+        <v>26.96037392616272</v>
       </c>
       <c r="C4">
-        <v>0.4689555887169644</v>
+        <v>0.917181777582837</v>
       </c>
       <c r="D4">
-        <v>1.146536350250244</v>
+        <v>3.033932209014893</v>
       </c>
       <c r="E4">
-        <v>0.323471580463041</v>
+        <v>0.8087013840579232</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.526124048233032</v>
+        <v>11.88267288208008</v>
       </c>
       <c r="C5">
-        <v>2.673012520969192</v>
+        <v>2.64876290435144</v>
       </c>
       <c r="D5">
-        <v>2.489454364776611</v>
+        <v>3.281555032730103</v>
       </c>
       <c r="E5">
-        <v>1.445762130957918</v>
+        <v>1.172064504440972</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.436406993865967</v>
+        <v>17.35736269950867</v>
       </c>
       <c r="C6">
-        <v>0.5711955851741286</v>
+        <v>1.612021714972691</v>
       </c>
       <c r="D6">
-        <v>2.082787752151489</v>
+        <v>3.868714141845703</v>
       </c>
       <c r="E6">
-        <v>0.4432873338756768</v>
+        <v>0.6685678817957207</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98579626083374</v>
+        <v>37.27624435424805</v>
       </c>
       <c r="C7">
-        <v>0.6484728964520402</v>
+        <v>0.9351324573675857</v>
       </c>
       <c r="D7">
-        <v>2.785252475738525</v>
+        <v>3.8475501537323</v>
       </c>
       <c r="E7">
-        <v>0.701507883077906</v>
+        <v>0.4498830863651747</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.03088150024414</v>
+        <v>15.36629495620728</v>
       </c>
       <c r="C8">
-        <v>1.916280269782354</v>
+        <v>2.501250598909284</v>
       </c>
       <c r="D8">
-        <v>2.988644456863403</v>
+        <v>3.610103607177734</v>
       </c>
       <c r="E8">
-        <v>0.3385781318121876</v>
+        <v>1.080804451491333</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.64274835586548</v>
+        <v>21.98962683677673</v>
       </c>
       <c r="C9">
-        <v>0.207583891694389</v>
+        <v>0.4563470145695356</v>
       </c>
       <c r="D9">
-        <v>3.497045087814331</v>
+        <v>4.504158782958984</v>
       </c>
       <c r="E9">
-        <v>1.116299997552069</v>
+        <v>0.7716787979450094</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.29975633621216</v>
+        <v>45.26378884315491</v>
       </c>
       <c r="C10">
-        <v>0.4142214038793458</v>
+        <v>2.055731597236429</v>
       </c>
       <c r="D10">
-        <v>2.89271125793457</v>
+        <v>3.589994859695435</v>
       </c>
       <c r="E10">
-        <v>0.3303539332317436</v>
+        <v>0.6104319458662394</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.682014894485474</v>
+        <v>13.9098201751709</v>
       </c>
       <c r="C11">
-        <v>0.8268210412642123</v>
+        <v>0.9356596607484199</v>
       </c>
       <c r="D11">
-        <v>2.734073829650879</v>
+        <v>4.320092868804932</v>
       </c>
       <c r="E11">
-        <v>1.182875851235901</v>
+        <v>1.366983435779168</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.115342998504639</v>
+        <v>17.53324589729309</v>
       </c>
       <c r="C12">
-        <v>0.677665134310097</v>
+        <v>0.3148023817089348</v>
       </c>
       <c r="D12">
-        <v>2.083033895492554</v>
+        <v>3.175854873657227</v>
       </c>
       <c r="E12">
-        <v>0.300336520416403</v>
+        <v>0.2389771084675355</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.13140897750855</v>
+        <v>33.82894339561462</v>
       </c>
       <c r="C13">
-        <v>0.3348116647410707</v>
+        <v>0.7260818858050093</v>
       </c>
       <c r="D13">
-        <v>2.631675052642822</v>
+        <v>4.337010526657105</v>
       </c>
       <c r="E13">
-        <v>0.4690232897094086</v>
+        <v>0.7951862195934145</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.14937653541565</v>
+        <v>14.98447561264038</v>
       </c>
       <c r="C14">
-        <v>1.867787302795695</v>
+        <v>1.689786017144911</v>
       </c>
       <c r="D14">
-        <v>3.126514673233032</v>
+        <v>3.589640426635742</v>
       </c>
       <c r="E14">
-        <v>0.5538474599186063</v>
+        <v>0.2549177368915434</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.31909418106079</v>
+        <v>22.99487156867981</v>
       </c>
       <c r="C15">
-        <v>0.6352395660348941</v>
+        <v>0.8870783605338733</v>
       </c>
       <c r="D15">
-        <v>3.62480616569519</v>
+        <v>4.5040611743927</v>
       </c>
       <c r="E15">
-        <v>0.671080855086039</v>
+        <v>1.025509776550054</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.65828895568848</v>
+        <v>49.70620036125183</v>
       </c>
       <c r="C16">
-        <v>0.3164271989642463</v>
+        <v>0.6498396211514452</v>
       </c>
       <c r="D16">
-        <v>3.042550706863403</v>
+        <v>4.090972185134888</v>
       </c>
       <c r="E16">
-        <v>0.1311380076199698</v>
+        <v>0.3092439290480217</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.50425939559937</v>
+        <v>19.52122135162353</v>
       </c>
       <c r="C17">
-        <v>1.39557096078003</v>
+        <v>3.681295506250922</v>
       </c>
       <c r="D17">
-        <v>3.484798336029053</v>
+        <v>4.452600002288818</v>
       </c>
       <c r="E17">
-        <v>0.7498899700479209</v>
+        <v>0.9193331619629065</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.95753569602966</v>
+        <v>31.67643351554871</v>
       </c>
       <c r="C18">
-        <v>1.062627001532878</v>
+        <v>0.7339335969887706</v>
       </c>
       <c r="D18">
-        <v>4.301947784423828</v>
+        <v>4.743810749053955</v>
       </c>
       <c r="E18">
-        <v>0.3161354853713516</v>
+        <v>0.8598020519339699</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.67083058357239</v>
+        <v>61.47290501594544</v>
       </c>
       <c r="C19">
-        <v>1.175001335408251</v>
+        <v>1.971650076314057</v>
       </c>
       <c r="D19">
-        <v>3.411623859405517</v>
+        <v>3.501990222930908</v>
       </c>
       <c r="E19">
-        <v>1.056126207699001</v>
+        <v>1.066303230674059</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.00311713218689</v>
+        <v>14.64929189682007</v>
       </c>
       <c r="C20">
-        <v>1.017875863112798</v>
+        <v>1.064885774753992</v>
       </c>
       <c r="D20">
-        <v>3.288586330413819</v>
+        <v>4.599486207962036</v>
       </c>
       <c r="E20">
-        <v>1.147768434218669</v>
+        <v>1.455925833855518</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.03213200569153</v>
+        <v>20.77016625404358</v>
       </c>
       <c r="C21">
-        <v>0.2866036456758694</v>
+        <v>1.704761940434637</v>
       </c>
       <c r="D21">
-        <v>1.405086135864258</v>
+        <v>2.575126266479492</v>
       </c>
       <c r="E21">
-        <v>0.5747321614190448</v>
+        <v>1.943854392099358</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58902883529663</v>
+        <v>35.52258033752442</v>
       </c>
       <c r="C22">
-        <v>1.016992208381018</v>
+        <v>1.953856485083845</v>
       </c>
       <c r="D22">
-        <v>2.868888235092163</v>
+        <v>3.787844705581665</v>
       </c>
       <c r="E22">
-        <v>0.8848663552876597</v>
+        <v>1.71159346565838</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.036216688156127</v>
+        <v>14.83741207122803</v>
       </c>
       <c r="C23">
-        <v>1.903395277990682</v>
+        <v>1.297491261375229</v>
       </c>
       <c r="D23">
-        <v>2.864228963851929</v>
+        <v>3.360366201400757</v>
       </c>
       <c r="E23">
-        <v>1.002462411117423</v>
+        <v>0.4119001217222828</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.56837320327759</v>
+        <v>23.05044164657593</v>
       </c>
       <c r="C24">
-        <v>1.113176897128249</v>
+        <v>1.657668131137178</v>
       </c>
       <c r="D24">
-        <v>3.557129573822022</v>
+        <v>4.284029388427735</v>
       </c>
       <c r="E24">
-        <v>0.857416136889706</v>
+        <v>1.621822469352929</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.75892152786255</v>
+        <v>52.07030787467956</v>
       </c>
       <c r="C25">
-        <v>1.148083993900525</v>
+        <v>0.2945852644580453</v>
       </c>
       <c r="D25">
-        <v>3.386267137527466</v>
+        <v>2.855234384536743</v>
       </c>
       <c r="E25">
-        <v>1.016285150668408</v>
+        <v>0.275434720609518</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>11.78488788604736</v>
+        <v>19.14579119682312</v>
       </c>
       <c r="C26">
-        <v>2.856584177006983</v>
+        <v>4.410274057137078</v>
       </c>
       <c r="D26">
-        <v>2.7368736743927</v>
+        <v>4.48353066444397</v>
       </c>
       <c r="E26">
-        <v>0.9903593825316862</v>
+        <v>0.7795191988190739</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.61815714836121</v>
+        <v>31.91112580299377</v>
       </c>
       <c r="C27">
-        <v>0.9745267386887314</v>
+        <v>0.9926055626910094</v>
       </c>
       <c r="D27">
-        <v>3.358448123931885</v>
+        <v>4.098128890991211</v>
       </c>
       <c r="E27">
-        <v>0.469864788410265</v>
+        <v>0.8198432943563079</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>29.37523174285889</v>
+        <v>48.65202431678772</v>
       </c>
       <c r="C28">
-        <v>2.79164784013909</v>
+        <v>6.929724389725988</v>
       </c>
       <c r="D28">
-        <v>1.577162170410156</v>
+        <v>1.920564126968384</v>
       </c>
       <c r="E28">
-        <v>1.195860411397079</v>
+        <v>1.340312328337274</v>
       </c>
       <c r="F28">
         <v>30</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.520905160903931</v>
+        <v>2.168573141098022</v>
       </c>
       <c r="C2">
-        <v>0.7816007632008675</v>
+        <v>0.7808794124058706</v>
       </c>
       <c r="D2">
-        <v>1.445225715637207</v>
+        <v>1.925850582122803</v>
       </c>
       <c r="E2">
-        <v>0.9911781861521042</v>
+        <v>0.2714891169178946</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.744060468673706</v>
+        <v>4.429179620742798</v>
       </c>
       <c r="C3">
-        <v>1.447375207324618</v>
+        <v>0.6554790036907353</v>
       </c>
       <c r="D3">
-        <v>2.135297060012817</v>
+        <v>1.362271165847778</v>
       </c>
       <c r="E3">
-        <v>0.5623774161249065</v>
+        <v>0.6527381698792089</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.96037392616272</v>
+        <v>14.26504197120667</v>
       </c>
       <c r="C4">
-        <v>0.917181777582837</v>
+        <v>0.4689555887169644</v>
       </c>
       <c r="D4">
-        <v>3.033932209014893</v>
+        <v>1.146536350250244</v>
       </c>
       <c r="E4">
-        <v>0.8087013840579232</v>
+        <v>0.323471580463041</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.88267288208008</v>
+        <v>6.526124048233032</v>
       </c>
       <c r="C5">
-        <v>2.64876290435144</v>
+        <v>2.673012520969192</v>
       </c>
       <c r="D5">
-        <v>3.281555032730103</v>
+        <v>2.489454364776611</v>
       </c>
       <c r="E5">
-        <v>1.172064504440972</v>
+        <v>1.445762130957918</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.35736269950867</v>
+        <v>9.436406993865967</v>
       </c>
       <c r="C6">
-        <v>1.612021714972691</v>
+        <v>0.5711955851741286</v>
       </c>
       <c r="D6">
-        <v>3.868714141845703</v>
+        <v>2.082787752151489</v>
       </c>
       <c r="E6">
-        <v>0.6685678817957207</v>
+        <v>0.4432873338756768</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>37.27624435424805</v>
+        <v>18.98579626083374</v>
       </c>
       <c r="C7">
-        <v>0.9351324573675857</v>
+        <v>0.6484728964520402</v>
       </c>
       <c r="D7">
-        <v>3.8475501537323</v>
+        <v>2.785252475738525</v>
       </c>
       <c r="E7">
-        <v>0.4498830863651747</v>
+        <v>0.701507883077906</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.36629495620728</v>
+        <v>8.03088150024414</v>
       </c>
       <c r="C8">
-        <v>2.501250598909284</v>
+        <v>1.916280269782354</v>
       </c>
       <c r="D8">
-        <v>3.610103607177734</v>
+        <v>2.988644456863403</v>
       </c>
       <c r="E8">
-        <v>1.080804451491333</v>
+        <v>0.3385781318121876</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.98962683677673</v>
+        <v>11.64274835586548</v>
       </c>
       <c r="C9">
-        <v>0.4563470145695356</v>
+        <v>0.207583891694389</v>
       </c>
       <c r="D9">
-        <v>4.504158782958984</v>
+        <v>3.497045087814331</v>
       </c>
       <c r="E9">
-        <v>0.7716787979450094</v>
+        <v>1.116299997552069</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45.26378884315491</v>
+        <v>23.29975633621216</v>
       </c>
       <c r="C10">
-        <v>2.055731597236429</v>
+        <v>0.4142214038793458</v>
       </c>
       <c r="D10">
-        <v>3.589994859695435</v>
+        <v>2.89271125793457</v>
       </c>
       <c r="E10">
-        <v>0.6104319458662394</v>
+        <v>0.3303539332317436</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.9098201751709</v>
+        <v>7.682014894485474</v>
       </c>
       <c r="C11">
-        <v>0.9356596607484199</v>
+        <v>0.8268210412642123</v>
       </c>
       <c r="D11">
-        <v>4.320092868804932</v>
+        <v>2.734073829650879</v>
       </c>
       <c r="E11">
-        <v>1.366983435779168</v>
+        <v>1.182875851235901</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53324589729309</v>
+        <v>9.115342998504639</v>
       </c>
       <c r="C12">
-        <v>0.3148023817089348</v>
+        <v>0.677665134310097</v>
       </c>
       <c r="D12">
-        <v>3.175854873657227</v>
+        <v>2.083033895492554</v>
       </c>
       <c r="E12">
-        <v>0.2389771084675355</v>
+        <v>0.300336520416403</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.82894339561462</v>
+        <v>19.13140897750855</v>
       </c>
       <c r="C13">
-        <v>0.7260818858050093</v>
+        <v>0.3348116647410707</v>
       </c>
       <c r="D13">
-        <v>4.337010526657105</v>
+        <v>2.631675052642822</v>
       </c>
       <c r="E13">
-        <v>0.7951862195934145</v>
+        <v>0.4690232897094086</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.98447561264038</v>
+        <v>8.14937653541565</v>
       </c>
       <c r="C14">
-        <v>1.689786017144911</v>
+        <v>1.867787302795695</v>
       </c>
       <c r="D14">
-        <v>3.589640426635742</v>
+        <v>3.126514673233032</v>
       </c>
       <c r="E14">
-        <v>0.2549177368915434</v>
+        <v>0.5538474599186063</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99487156867981</v>
+        <v>12.31909418106079</v>
       </c>
       <c r="C15">
-        <v>0.8870783605338733</v>
+        <v>0.6352395660348941</v>
       </c>
       <c r="D15">
-        <v>4.5040611743927</v>
+        <v>3.62480616569519</v>
       </c>
       <c r="E15">
-        <v>1.025509776550054</v>
+        <v>0.671080855086039</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49.70620036125183</v>
+        <v>26.65828895568848</v>
       </c>
       <c r="C16">
-        <v>0.6498396211514452</v>
+        <v>0.3164271989642463</v>
       </c>
       <c r="D16">
-        <v>4.090972185134888</v>
+        <v>3.042550706863403</v>
       </c>
       <c r="E16">
-        <v>0.3092439290480217</v>
+        <v>0.1311380076199698</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.52122135162353</v>
+        <v>10.50425939559937</v>
       </c>
       <c r="C17">
-        <v>3.681295506250922</v>
+        <v>1.39557096078003</v>
       </c>
       <c r="D17">
-        <v>4.452600002288818</v>
+        <v>3.484798336029053</v>
       </c>
       <c r="E17">
-        <v>0.9193331619629065</v>
+        <v>0.7498899700479209</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67643351554871</v>
+        <v>15.95753569602966</v>
       </c>
       <c r="C18">
-        <v>0.7339335969887706</v>
+        <v>1.062627001532878</v>
       </c>
       <c r="D18">
-        <v>4.743810749053955</v>
+        <v>4.301947784423828</v>
       </c>
       <c r="E18">
-        <v>0.8598020519339699</v>
+        <v>0.3161354853713516</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>61.47290501594544</v>
+        <v>32.67083058357239</v>
       </c>
       <c r="C19">
-        <v>1.971650076314057</v>
+        <v>1.175001335408251</v>
       </c>
       <c r="D19">
-        <v>3.501990222930908</v>
+        <v>3.411623859405517</v>
       </c>
       <c r="E19">
-        <v>1.066303230674059</v>
+        <v>1.056126207699001</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64929189682007</v>
+        <v>9.00311713218689</v>
       </c>
       <c r="C20">
-        <v>1.064885774753992</v>
+        <v>1.017875863112798</v>
       </c>
       <c r="D20">
-        <v>4.599486207962036</v>
+        <v>3.288586330413819</v>
       </c>
       <c r="E20">
-        <v>1.455925833855518</v>
+        <v>1.147768434218669</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.77016625404358</v>
+        <v>11.03213200569153</v>
       </c>
       <c r="C21">
-        <v>1.704761940434637</v>
+        <v>0.2866036456758694</v>
       </c>
       <c r="D21">
-        <v>2.575126266479492</v>
+        <v>1.405086135864258</v>
       </c>
       <c r="E21">
-        <v>1.943854392099358</v>
+        <v>0.5747321614190448</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.52258033752442</v>
+        <v>19.58902883529663</v>
       </c>
       <c r="C22">
-        <v>1.953856485083845</v>
+        <v>1.016992208381018</v>
       </c>
       <c r="D22">
-        <v>3.787844705581665</v>
+        <v>2.868888235092163</v>
       </c>
       <c r="E22">
-        <v>1.71159346565838</v>
+        <v>0.8848663552876597</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.83741207122803</v>
+        <v>8.036216688156127</v>
       </c>
       <c r="C23">
-        <v>1.297491261375229</v>
+        <v>1.903395277990682</v>
       </c>
       <c r="D23">
-        <v>3.360366201400757</v>
+        <v>2.864228963851929</v>
       </c>
       <c r="E23">
-        <v>0.4119001217222828</v>
+        <v>1.002462411117423</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.05044164657593</v>
+        <v>13.56837320327759</v>
       </c>
       <c r="C24">
-        <v>1.657668131137178</v>
+        <v>1.113176897128249</v>
       </c>
       <c r="D24">
-        <v>4.284029388427735</v>
+        <v>3.557129573822022</v>
       </c>
       <c r="E24">
-        <v>1.621822469352929</v>
+        <v>0.857416136889706</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52.07030787467956</v>
+        <v>29.75892152786255</v>
       </c>
       <c r="C25">
-        <v>0.2945852644580453</v>
+        <v>1.148083993900525</v>
       </c>
       <c r="D25">
-        <v>2.855234384536743</v>
+        <v>3.386267137527466</v>
       </c>
       <c r="E25">
-        <v>0.275434720609518</v>
+        <v>1.016285150668408</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.14579119682312</v>
+        <v>11.78488788604736</v>
       </c>
       <c r="C26">
-        <v>4.410274057137078</v>
+        <v>2.856584177006983</v>
       </c>
       <c r="D26">
-        <v>4.48353066444397</v>
+        <v>2.7368736743927</v>
       </c>
       <c r="E26">
-        <v>0.7795191988190739</v>
+        <v>0.9903593825316862</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31.91112580299377</v>
+        <v>17.61815714836121</v>
       </c>
       <c r="C27">
-        <v>0.9926055626910094</v>
+        <v>0.9745267386887314</v>
       </c>
       <c r="D27">
-        <v>4.098128890991211</v>
+        <v>3.358448123931885</v>
       </c>
       <c r="E27">
-        <v>0.8198432943563079</v>
+        <v>0.469864788410265</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>48.65202431678772</v>
+        <v>29.37523174285889</v>
       </c>
       <c r="C28">
-        <v>6.929724389725988</v>
+        <v>2.79164784013909</v>
       </c>
       <c r="D28">
-        <v>1.920564126968384</v>
+        <v>1.577162170410156</v>
       </c>
       <c r="E28">
-        <v>1.340312328337274</v>
+        <v>1.195860411397079</v>
       </c>
       <c r="F28">
         <v>30</v>
